--- a/biology/Zoologie/Conus_salletae/Conus_salletae.xlsx
+++ b/biology/Zoologie/Conus_salletae/Conus_salletae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus salletae est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 14 mm et 24 mm.
 </t>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce marine est présente au large de île de Boa Vista, au Cap-Vert[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce marine est présente au large de île de Boa Vista, au Cap-Vert.
 </t>
         </is>
       </c>
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus salletae a été décrite pour la première fois en 2014 par le malacologiste italien Cossignani dans « Malacologia Mostra Mondiale »[2],[3].
-Synonymes
-Africonus salletae T. Cossignani, 2014 · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus salletae a été décrite pour la première fois en 2014 par le malacologiste italien Cossignani dans « Malacologia Mostra Mondiale »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_salletae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_salletae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Africonus salletae T. Cossignani, 2014 · appellation alternative
 Conus (Lautoconus) salletae (T. Cossignani, 2014) · non accepté</t>
         </is>
       </c>
